--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H2">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I2">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J2">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.30513066666666</v>
+        <v>44.82979266666666</v>
       </c>
       <c r="N2">
-        <v>123.915392</v>
+        <v>134.489378</v>
       </c>
       <c r="O2">
-        <v>0.9052975942275636</v>
+        <v>0.9267391437130508</v>
       </c>
       <c r="P2">
-        <v>0.9052975942275635</v>
+        <v>0.926739143713051</v>
       </c>
       <c r="Q2">
-        <v>883.7838377032674</v>
+        <v>694.5660890209039</v>
       </c>
       <c r="R2">
-        <v>7954.054539329407</v>
+        <v>6251.094801188135</v>
       </c>
       <c r="S2">
-        <v>0.06530137951200596</v>
+        <v>0.04963922419298351</v>
       </c>
       <c r="T2">
-        <v>0.06530137951200593</v>
+        <v>0.04963922419298351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H3">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I3">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J3">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.51869</v>
       </c>
       <c r="O3">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173022</v>
       </c>
       <c r="P3">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173024</v>
       </c>
       <c r="Q3">
-        <v>25.09584404081222</v>
+        <v>18.17216190692</v>
       </c>
       <c r="R3">
-        <v>225.86259636731</v>
+        <v>163.54945716228</v>
       </c>
       <c r="S3">
-        <v>0.001854291927471772</v>
+        <v>0.001298727411584944</v>
       </c>
       <c r="T3">
-        <v>0.001854291927471772</v>
+        <v>0.001298727411584945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H4">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I4">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J4">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.089783333333333</v>
+        <v>2.351975</v>
       </c>
       <c r="N4">
-        <v>9.269349999999999</v>
+        <v>7.055925</v>
       </c>
       <c r="O4">
-        <v>0.06771975716344639</v>
+        <v>0.0486209542333039</v>
       </c>
       <c r="P4">
-        <v>0.06771975716344637</v>
+        <v>0.04862095423330391</v>
       </c>
       <c r="Q4">
-        <v>66.1104450689611</v>
+        <v>36.44009887289999</v>
       </c>
       <c r="R4">
-        <v>594.9940056206499</v>
+        <v>327.9608898561</v>
       </c>
       <c r="S4">
-        <v>0.004884795443165062</v>
+        <v>0.002604299671635608</v>
       </c>
       <c r="T4">
-        <v>0.00488479544316506</v>
+        <v>0.002604299671635609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.39646633333333</v>
+        <v>15.493404</v>
       </c>
       <c r="H5">
-        <v>64.18939899999999</v>
+        <v>46.48021199999999</v>
       </c>
       <c r="I5">
-        <v>0.0721325008796955</v>
+        <v>0.05356331879335558</v>
       </c>
       <c r="J5">
-        <v>0.07213250087969549</v>
+        <v>0.05356331879335557</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05821433333333333</v>
+        <v>0.01902633333333333</v>
       </c>
       <c r="N5">
-        <v>0.174643</v>
+        <v>0.057079</v>
       </c>
       <c r="O5">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150222</v>
       </c>
       <c r="P5">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150223</v>
       </c>
       <c r="Q5">
-        <v>1.245581023284111</v>
+        <v>0.294782668972</v>
       </c>
       <c r="R5">
-        <v>11.210229209557</v>
+        <v>2.653044020748</v>
       </c>
       <c r="S5">
-        <v>9.203399705272493E-05</v>
+        <v>2.106751715151293E-05</v>
       </c>
       <c r="T5">
-        <v>9.203399705272491E-05</v>
+        <v>2.106751715151293E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J6">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30513066666666</v>
+        <v>44.82979266666666</v>
       </c>
       <c r="N6">
-        <v>123.915392</v>
+        <v>134.489378</v>
       </c>
       <c r="O6">
-        <v>0.9052975942275636</v>
+        <v>0.9267391437130508</v>
       </c>
       <c r="P6">
-        <v>0.9052975942275635</v>
+        <v>0.926739143713051</v>
       </c>
       <c r="Q6">
-        <v>5405.526201075456</v>
+        <v>5866.792210489403</v>
       </c>
       <c r="R6">
-        <v>48649.73580967911</v>
+        <v>52801.12989440464</v>
       </c>
       <c r="S6">
-        <v>0.399405717619648</v>
+        <v>0.4192876940488929</v>
       </c>
       <c r="T6">
-        <v>0.3994057176196479</v>
+        <v>0.4192876940488929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J7">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.51869</v>
       </c>
       <c r="O7">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173022</v>
       </c>
       <c r="P7">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173024</v>
       </c>
       <c r="Q7">
         <v>153.49482159942</v>
@@ -883,10 +883,10 @@
         <v>1381.45339439478</v>
       </c>
       <c r="S7">
-        <v>0.01134148778330201</v>
+        <v>0.010969962372589</v>
       </c>
       <c r="T7">
-        <v>0.01134148778330201</v>
+        <v>0.010969962372589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>392.604462</v>
       </c>
       <c r="I8">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J8">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.089783333333333</v>
+        <v>2.351975</v>
       </c>
       <c r="N8">
-        <v>9.269349999999999</v>
+        <v>7.055925</v>
       </c>
       <c r="O8">
-        <v>0.06771975716344639</v>
+        <v>0.0486209542333039</v>
       </c>
       <c r="P8">
-        <v>0.06771975716344637</v>
+        <v>0.04862095423330391</v>
       </c>
       <c r="Q8">
-        <v>404.3542410933</v>
+        <v>307.79862650415</v>
       </c>
       <c r="R8">
-        <v>3639.1881698397</v>
+        <v>2770.18763853735</v>
       </c>
       <c r="S8">
-        <v>0.02987709056045019</v>
+        <v>0.02199774113485702</v>
       </c>
       <c r="T8">
-        <v>0.02987709056045018</v>
+        <v>0.02199774113485702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>392.604462</v>
       </c>
       <c r="I9">
-        <v>0.4411872075728171</v>
+        <v>0.4524333485785276</v>
       </c>
       <c r="J9">
-        <v>0.441187207572817</v>
+        <v>0.4524333485785275</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05821433333333333</v>
+        <v>0.01902633333333333</v>
       </c>
       <c r="N9">
-        <v>0.174643</v>
+        <v>0.057079</v>
       </c>
       <c r="O9">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150222</v>
       </c>
       <c r="P9">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150223</v>
       </c>
       <c r="Q9">
-        <v>7.618402339674001</v>
+        <v>2.489941120722</v>
       </c>
       <c r="R9">
-        <v>68.565621057066</v>
+        <v>22.409470086498</v>
       </c>
       <c r="S9">
-        <v>0.0005629116094169172</v>
+        <v>0.0001779510221886576</v>
       </c>
       <c r="T9">
-        <v>0.0005629116094169171</v>
+        <v>0.0001779510221886576</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H10">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J10">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.30513066666666</v>
+        <v>44.82979266666666</v>
       </c>
       <c r="N10">
-        <v>123.915392</v>
+        <v>134.489378</v>
       </c>
       <c r="O10">
-        <v>0.9052975942275636</v>
+        <v>0.9267391437130508</v>
       </c>
       <c r="P10">
-        <v>0.9052975942275635</v>
+        <v>0.926739143713051</v>
       </c>
       <c r="Q10">
-        <v>2863.951182286307</v>
+        <v>2996.209189920431</v>
       </c>
       <c r="R10">
-        <v>25775.56064057677</v>
+        <v>26965.88270928388</v>
       </c>
       <c r="S10">
-        <v>0.2116127893268044</v>
+        <v>0.2141329702940069</v>
       </c>
       <c r="T10">
-        <v>0.2116127893268044</v>
+        <v>0.214132970294007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H11">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J11">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.51869</v>
       </c>
       <c r="O11">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173022</v>
       </c>
       <c r="P11">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173024</v>
       </c>
       <c r="Q11">
-        <v>81.32449264736222</v>
+        <v>78.39081027262334</v>
       </c>
       <c r="R11">
-        <v>731.92043382626</v>
+        <v>705.51729245361</v>
       </c>
       <c r="S11">
-        <v>0.006008937176071989</v>
+        <v>0.005602431600537399</v>
       </c>
       <c r="T11">
-        <v>0.006008937176071988</v>
+        <v>0.005602431600537401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H12">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J12">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.089783333333333</v>
+        <v>2.351975</v>
       </c>
       <c r="N12">
-        <v>9.269349999999999</v>
+        <v>7.055925</v>
       </c>
       <c r="O12">
-        <v>0.06771975716344639</v>
+        <v>0.0486209542333039</v>
       </c>
       <c r="P12">
-        <v>0.06771975716344637</v>
+        <v>0.04862095423330391</v>
       </c>
       <c r="Q12">
-        <v>214.2346117222111</v>
+        <v>157.194773615425</v>
       </c>
       <c r="R12">
-        <v>1928.1115054999</v>
+        <v>1414.752962538825</v>
       </c>
       <c r="S12">
-        <v>0.01582945409030716</v>
+        <v>0.0112343904097894</v>
       </c>
       <c r="T12">
-        <v>0.01582945409030715</v>
+        <v>0.0112343904097894</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>69.33645133333333</v>
+        <v>66.835223</v>
       </c>
       <c r="H13">
-        <v>208.009354</v>
+        <v>200.505669</v>
       </c>
       <c r="I13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563543</v>
       </c>
       <c r="J13">
-        <v>0.2337494219316478</v>
+        <v>0.2310606730563542</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05821433333333333</v>
+        <v>0.01902633333333333</v>
       </c>
       <c r="N13">
-        <v>0.174643</v>
+        <v>0.057079</v>
       </c>
       <c r="O13">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150222</v>
       </c>
       <c r="P13">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150223</v>
       </c>
       <c r="Q13">
-        <v>4.036375290069111</v>
+        <v>1.271629231205667</v>
       </c>
       <c r="R13">
-        <v>36.327377610622</v>
+        <v>11.444663080851</v>
       </c>
       <c r="S13">
-        <v>0.000298241338464241</v>
+        <v>9.088075202051736E-05</v>
       </c>
       <c r="T13">
-        <v>0.000298241338464241</v>
+        <v>9.088075202051738E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H14">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J14">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.30513066666666</v>
+        <v>44.82979266666666</v>
       </c>
       <c r="N14">
-        <v>123.915392</v>
+        <v>134.489378</v>
       </c>
       <c r="O14">
-        <v>0.9052975942275636</v>
+        <v>0.9267391437130508</v>
       </c>
       <c r="P14">
-        <v>0.9052975942275635</v>
+        <v>0.926739143713051</v>
       </c>
       <c r="Q14">
-        <v>3098.966650214044</v>
+        <v>3409.62917925409</v>
       </c>
       <c r="R14">
-        <v>27890.6998519264</v>
+        <v>30686.66261328681</v>
       </c>
       <c r="S14">
-        <v>0.2289777077691052</v>
+        <v>0.2436792551771676</v>
       </c>
       <c r="T14">
-        <v>0.2289777077691052</v>
+        <v>0.2436792551771677</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H15">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J15">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.51869</v>
       </c>
       <c r="O15">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173022</v>
       </c>
       <c r="P15">
-        <v>0.02570674667948099</v>
+        <v>0.02424658219173024</v>
       </c>
       <c r="Q15">
-        <v>87.99797011852777</v>
+        <v>89.20725394945001</v>
       </c>
       <c r="R15">
-        <v>791.9817310667499</v>
+        <v>802.8652855450501</v>
       </c>
       <c r="S15">
-        <v>0.006502029792635227</v>
+        <v>0.006375460807018884</v>
       </c>
       <c r="T15">
-        <v>0.006502029792635226</v>
+        <v>0.006375460807018888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H16">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J16">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.089783333333333</v>
+        <v>2.351975</v>
       </c>
       <c r="N16">
-        <v>9.269349999999999</v>
+        <v>7.055925</v>
       </c>
       <c r="O16">
-        <v>0.06771975716344639</v>
+        <v>0.0486209542333039</v>
       </c>
       <c r="P16">
-        <v>0.06771975716344637</v>
+        <v>0.04862095423330391</v>
       </c>
       <c r="Q16">
-        <v>231.8146765751389</v>
+        <v>178.884668249625</v>
       </c>
       <c r="R16">
-        <v>2086.33208917625</v>
+        <v>1609.962014246625</v>
       </c>
       <c r="S16">
-        <v>0.01712841706952398</v>
+        <v>0.01278452301702188</v>
       </c>
       <c r="T16">
-        <v>0.01712841706952398</v>
+        <v>0.01278452301702189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>75.02619166666666</v>
+        <v>76.057215</v>
       </c>
       <c r="H17">
-        <v>225.078575</v>
+        <v>228.171645</v>
       </c>
       <c r="I17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="J17">
-        <v>0.2529308696158397</v>
+        <v>0.2629426595717627</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05821433333333333</v>
+        <v>0.01902633333333333</v>
       </c>
       <c r="N17">
-        <v>0.174643</v>
+        <v>0.057079</v>
       </c>
       <c r="O17">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150222</v>
       </c>
       <c r="P17">
-        <v>0.001275901929509164</v>
+        <v>0.0003933198619150223</v>
       </c>
       <c r="Q17">
-        <v>4.367599730413889</v>
+        <v>1.447089924995</v>
       </c>
       <c r="R17">
-        <v>39.308397573725</v>
+        <v>13.023809324955</v>
       </c>
       <c r="S17">
-        <v>0.0003227149845752806</v>
+        <v>0.0001034205705543344</v>
       </c>
       <c r="T17">
-        <v>0.0003227149845752805</v>
+        <v>0.0001034205705543344</v>
       </c>
     </row>
   </sheetData>
